--- a/tests/mocks/1_analysis/xlsx_input/output.xlsx
+++ b/tests/mocks/1_analysis/xlsx_input/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://westfall973-my.sharepoint.com/personal/chris_cox_westfall_io/Documents/Code/Windstorm/windstorm/tests/mocks/1_analysis/xlsx_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76BEF4DC-D00B-C84E-9B31-9CB803BB5B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{5C8D8926-02BE-5C41-9A59-8DD6EEE3F3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33A81FDF-FA68-5C4B-B60A-FFBCBB6FBE54}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{FC0CB836-E77C-6E40-BEFD-787651728BB9}"/>
   </bookViews>

--- a/tests/mocks/1_analysis/xlsx_input/output.xlsx
+++ b/tests/mocks/1_analysis/xlsx_input/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://westfall973-my.sharepoint.com/personal/chris_cox_westfall_io/Documents/Code/Windstorm/windstorm/tests/mocks/1_analysis/xlsx_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{5C8D8926-02BE-5C41-9A59-8DD6EEE3F3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33A81FDF-FA68-5C4B-B60A-FFBCBB6FBE54}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{5C8D8926-02BE-5C41-9A59-8DD6EEE3F3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F92CEFE5-1C3A-E242-85F0-197CFC2C454E}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{FC0CB836-E77C-6E40-BEFD-787651728BB9}"/>
   </bookViews>
@@ -36,7 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>{{ windstorm('deltaT') }}</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -87,6 +91,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -415,8 +423,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tests/mocks/1_analysis/xlsx_input/output.xlsx
+++ b/tests/mocks/1_analysis/xlsx_input/output.xlsx
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>{{ windstorm('deltaT') }}</t>
+    <t>1</t>
   </si>
 </sst>
 </file>
